--- a/TrialCondition_F.xlsx
+++ b/TrialCondition_F.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uzhmanagani/Desktop/4D09/Thesis/PsychoPy/Face Attractiveness Rating/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{899F6555-65E3-844C-914B-AD9C295C19D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C58F2C9-988A-3544-97F8-52C2DFD56B41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="500" windowWidth="27640" windowHeight="15640" xr2:uid="{922796EF-0C65-B348-B046-56987E73117B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{922796EF-0C65-B348-B046-56987E73117B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="30">
   <si>
     <t>Image</t>
   </si>
@@ -44,30 +44,6 @@
     <t>AgeGroup</t>
   </si>
   <si>
-    <t>Images/F-A-A.jpg</t>
-  </si>
-  <si>
-    <t>Images/F-A-C.jpg</t>
-  </si>
-  <si>
-    <t>Images/F-C-A.jpg</t>
-  </si>
-  <si>
-    <t>Images/F-C-C.jpg</t>
-  </si>
-  <si>
-    <t>Images/M-A-A.jpg</t>
-  </si>
-  <si>
-    <t>Images/M-A-C.jpg</t>
-  </si>
-  <si>
-    <t>Images/M-C-A.jpg</t>
-  </si>
-  <si>
-    <t>Images/M-C-C.jpg</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
@@ -75,16 +51,95 @@
   </si>
   <si>
     <t xml:space="preserve">Adult </t>
+  </si>
+  <si>
+    <t>Images/F-A-A-ver1.jpg</t>
+  </si>
+  <si>
+    <t>Images/F-A-C-ver1.jpg</t>
+  </si>
+  <si>
+    <t>Images/F-C-A-ver1.jpg</t>
+  </si>
+  <si>
+    <t>Images/F-C-C-ver1.jpg</t>
+  </si>
+  <si>
+    <t>Images/M-A-A-ver1.jpg</t>
+  </si>
+  <si>
+    <t>Images/M-A-C-ver1.jpg</t>
+  </si>
+  <si>
+    <t>Images/M-C-A-ver1.jpg</t>
+  </si>
+  <si>
+    <t>Images/M-C-C-ver1.jpg</t>
+  </si>
+  <si>
+    <t>Images/F-A-A-ver2.jpg</t>
+  </si>
+  <si>
+    <t>Images/F-A-C-ver2.jpg</t>
+  </si>
+  <si>
+    <t>Images/F-C-A-ver2.jpg</t>
+  </si>
+  <si>
+    <t>Images/F-C-C-ver2.jpg</t>
+  </si>
+  <si>
+    <t>Images/M-A-A-ver2.jpg</t>
+  </si>
+  <si>
+    <t>Images/M-A-C-ver2.jpg</t>
+  </si>
+  <si>
+    <t>Images/M-C-A-ver2.jpg</t>
+  </si>
+  <si>
+    <t>Images/M-C-C-ver2.jpg</t>
+  </si>
+  <si>
+    <t>Images/F-A-A-ver3.jpg</t>
+  </si>
+  <si>
+    <t>Images/F-A-C-ver3.jpg</t>
+  </si>
+  <si>
+    <t>Images/F-C-A-ver3.jpg</t>
+  </si>
+  <si>
+    <t>Images/F-C-C-ver3.jpg</t>
+  </si>
+  <si>
+    <t>Images/M-A-A-ver3.jpg</t>
+  </si>
+  <si>
+    <t>Images/M-A-C-ver3.jpg</t>
+  </si>
+  <si>
+    <t>Images/M-C-A-ver3.jpg</t>
+  </si>
+  <si>
+    <t>Images/M-C-C-ver3.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -110,8 +165,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,15 +482,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8841254-1E85-D342-865A-C2EEB18DEB9E}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="135" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -450,90 +507,266 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
